--- a/result/with_base/124/arousal/s21_0.xlsx
+++ b/result/with_base/124/arousal/s21_0.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8274999856948853</v>
+        <v>0.8376116156578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41735.837890625</v>
+        <v>11302.05615234375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8519318212162365</v>
+        <v>0.816701682174907</v>
       </c>
       <c r="E2" t="n">
-        <v>41734.50852272727</v>
+        <v>11303.08099724265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.887499988079071</v>
+        <v>0.8744419515132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40952.92578125</v>
+        <v>10999.99658203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8972727114504034</v>
+        <v>0.8796612409984365</v>
       </c>
       <c r="E3" t="n">
-        <v>40950.05539772727</v>
+        <v>11000.63252527574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.8856026828289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40176.177734375</v>
+        <v>10704.9892578125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9155681729316711</v>
+        <v>0.9004070373142466</v>
       </c>
       <c r="E4" t="n">
-        <v>40174.29829545454</v>
+        <v>10704.66302849265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39410.265625</v>
+        <v>10413.57861328125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9281818270683289</v>
+        <v>0.9146533608436584</v>
       </c>
       <c r="E5" t="n">
-        <v>39406.97443181818</v>
+        <v>10413.57284007353</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8949999809265137</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38652.546875</v>
+        <v>10128.4091796875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9427272731607611</v>
+        <v>0.9230567216873169</v>
       </c>
       <c r="E6" t="n">
-        <v>38650.33238636364</v>
+        <v>10127.78102022059</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C7" t="n">
-        <v>37910.9296875</v>
+        <v>9848.849609375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9464772668751803</v>
+        <v>0.9283744762925541</v>
       </c>
       <c r="E7" t="n">
-        <v>37906.9921875</v>
+        <v>9847.989487591913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8939732015132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37178.041015625</v>
+        <v>9575.10791015625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9664772748947144</v>
+        <v>0.9251575645278481</v>
       </c>
       <c r="E8" t="n">
-        <v>37175.32670454546</v>
+        <v>9574.462373621323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.89453125</v>
       </c>
       <c r="C9" t="n">
-        <v>36459.666015625</v>
+        <v>9308.09375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9626136205413125</v>
+        <v>0.9327731097445768</v>
       </c>
       <c r="E9" t="n">
-        <v>36456.93394886364</v>
+        <v>9307.293313419117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35753.576171875</v>
+        <v>9046.96044921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9776136495850303</v>
+        <v>0.9582457998219658</v>
       </c>
       <c r="E10" t="n">
-        <v>35750.80362215909</v>
+        <v>9046.135110294117</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.9375</v>
       </c>
       <c r="C11" t="n">
-        <v>35061.525390625</v>
+        <v>8792.4794921875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9707954580133612</v>
+        <v>0.9555540961377761</v>
       </c>
       <c r="E11" t="n">
-        <v>35057.89417613636</v>
+        <v>8791.709616268383</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34378.947265625</v>
+        <v>8544.009765625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9737500060688365</v>
+        <v>0.9670430667260114</v>
       </c>
       <c r="E12" t="n">
-        <v>34376.73757102273</v>
+        <v>8543.20255055147</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C13" t="n">
-        <v>33710.892578125</v>
+        <v>8302.041015625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9832954623482444</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E13" t="n">
-        <v>33707.97727272727</v>
+        <v>8301.07284007353</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C14" t="n">
-        <v>33055.3515625</v>
+        <v>8066.049072265625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9672727259722623</v>
+        <v>0.9657956922755522</v>
       </c>
       <c r="E14" t="n">
-        <v>33051.92436079546</v>
+        <v>8065.095186121323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.91015625</v>
       </c>
       <c r="C15" t="n">
-        <v>32409.2705078125</v>
+        <v>7835.9296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9812500097534873</v>
+        <v>0.9602153371362125</v>
       </c>
       <c r="E15" t="n">
-        <v>32407.04669744318</v>
+        <v>7835.095186121323</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31777.029296875</v>
+        <v>7611.602783203125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9820454608310353</v>
+        <v>0.9675682783126831</v>
       </c>
       <c r="E16" t="n">
-        <v>31774.47034801136</v>
+        <v>7610.832979090073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31155.1015625</v>
+        <v>7393.038818359375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9737394942956812</v>
       </c>
       <c r="E17" t="n">
-        <v>31153.32084517046</v>
+        <v>7392.280417049632</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9375</v>
       </c>
       <c r="C18" t="n">
-        <v>30545.259765625</v>
+        <v>7179.984619140625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9838636517524719</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E18" t="n">
-        <v>30543.70134943182</v>
+        <v>7179.356703814338</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29947.689453125</v>
+        <v>6972.80078125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9831818288022821</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E19" t="n">
-        <v>29945.16832386364</v>
+        <v>6972.120720358456</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29359.2724609375</v>
+        <v>6771.047607421875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E20" t="n">
-        <v>29357.68838778409</v>
+        <v>6770.292595358456</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28783.1435546875</v>
+        <v>6574.30078125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9896590980616483</v>
+        <v>0.9869353981579051</v>
       </c>
       <c r="E21" t="n">
-        <v>28781.19069602273</v>
+        <v>6573.596708409927</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28217.1259765625</v>
+        <v>6382.863525390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E22" t="n">
-        <v>28215.37020596591</v>
+        <v>6382.118480009191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27661.8720703125</v>
+        <v>6196.50732421875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E23" t="n">
-        <v>27660.11381392046</v>
+        <v>6195.706428079044</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27116.8544921875</v>
+        <v>6014.955078125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9870454668998718</v>
+        <v>0.9852284648839165</v>
       </c>
       <c r="E24" t="n">
-        <v>27115.35830965909</v>
+        <v>6014.192267922794</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26582.3623046875</v>
+        <v>5838.279541015625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9882954629984769</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E25" t="n">
-        <v>26580.51100852273</v>
+        <v>5837.525017233456</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>26057.9501953125</v>
+        <v>5666.19873046875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9938287805108463</v>
       </c>
       <c r="E26" t="n">
-        <v>26055.73792613636</v>
+        <v>5665.512953814338</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.93359375</v>
       </c>
       <c r="C27" t="n">
-        <v>25541.98046875</v>
+        <v>5498.7451171875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E27" t="n">
-        <v>25540.67098721591</v>
+        <v>5498.13045726103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25037.22265625</v>
+        <v>5335.818115234375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E28" t="n">
-        <v>25035.28639914773</v>
+        <v>5335.203153722427</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24541.310546875</v>
+        <v>5177.25048828125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.991931823166934</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E29" t="n">
-        <v>24539.46608664773</v>
+        <v>5176.666130514706</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C30" t="n">
-        <v>24054.6416015625</v>
+        <v>5022.942626953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E30" t="n">
-        <v>24052.86399147727</v>
+        <v>5022.405043658088</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23577.2958984375</v>
+        <v>4872.943603515625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E31" t="n">
-        <v>23575.39985795454</v>
+        <v>4872.357479319853</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23108.6865234375</v>
+        <v>4726.923583984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9892331922755522</v>
       </c>
       <c r="E32" t="n">
-        <v>23106.90678267046</v>
+        <v>4726.349982766544</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C33" t="n">
-        <v>22649.412109375</v>
+        <v>4584.84814453125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9884091019630432</v>
+        <v>0.9910714275696698</v>
       </c>
       <c r="E33" t="n">
-        <v>22647.27982954546</v>
+        <v>4584.308306525735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22197.3115234375</v>
+        <v>4446.75927734375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E34" t="n">
-        <v>22196.13299005682</v>
+        <v>4446.187298943015</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9296875</v>
       </c>
       <c r="C35" t="n">
-        <v>21755.083984375</v>
+        <v>4312.2392578125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E35" t="n">
-        <v>21753.56853693182</v>
+        <v>4311.820628446691</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9296875</v>
       </c>
       <c r="C36" t="n">
-        <v>21320.7119140625</v>
+        <v>4181.564697265625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E36" t="n">
-        <v>21319.25088778409</v>
+        <v>4181.12899241728</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C37" t="n">
-        <v>20894.134765625</v>
+        <v>4054.364501953125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E37" t="n">
-        <v>20893.12837357954</v>
+        <v>4054.032772288603</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20476.8974609375</v>
+        <v>3930.877807617188</v>
       </c>
       <c r="D38" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E38" t="n">
-        <v>20475.12571022727</v>
+        <v>3930.461641199448</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.94140625</v>
       </c>
       <c r="C39" t="n">
-        <v>20066.072265625</v>
+        <v>3810.681518554688</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E39" t="n">
-        <v>20064.87127130682</v>
+        <v>3810.352065142463</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19663.43359375</v>
+        <v>3693.88916015625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E40" t="n">
-        <v>19662.40394176136</v>
+        <v>3693.540326286765</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C41" t="n">
-        <v>19269.185546875</v>
+        <v>3580.319091796875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E41" t="n">
-        <v>19267.55557528409</v>
+        <v>3579.997759650735</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18881.1630859375</v>
+        <v>3469.982421875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E42" t="n">
-        <v>18880.09854403409</v>
+        <v>3469.607077205882</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18500.9013671875</v>
+        <v>3362.596069335938</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E43" t="n">
-        <v>18499.99041193182</v>
+        <v>3362.298684512868</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18128.2607421875</v>
+        <v>3258.356689453125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E44" t="n">
-        <v>18127.06338778409</v>
+        <v>3258.017276539522</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17761.9619140625</v>
+        <v>3156.911743164062</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E45" t="n">
-        <v>17761.16690340909</v>
+        <v>3156.642003676471</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17403.2744140625</v>
+        <v>3058.370971679688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E46" t="n">
-        <v>17402.16495028409</v>
+        <v>3058.110940372243</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9296875</v>
       </c>
       <c r="C47" t="n">
-        <v>17051.2451171875</v>
+        <v>2962.675903320312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E47" t="n">
-        <v>17049.97975852273</v>
+        <v>2962.396369485294</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9375</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16705.26171875</v>
+        <v>2869.60205078125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E48" t="n">
-        <v>16704.42311789773</v>
+        <v>2869.344511144302</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16366.59423828125</v>
+        <v>2779.272583007812</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E49" t="n">
-        <v>16365.48996803977</v>
+        <v>2778.982493681066</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16033.55908203125</v>
+        <v>2691.320190429688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E50" t="n">
-        <v>16032.90323153409</v>
+        <v>2691.141242532169</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,916 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15707.845703125</v>
+        <v>2605.979614257812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E51" t="n">
-        <v>15706.69682173295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15387.26171875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15386.60484730114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9274999797344208</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15073.1962890625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15072.60191761364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14765.68310546875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14764.58531605114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14463.20361328125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9960227283564481</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14462.43501420455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14166.94580078125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9951136383143339</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14166.02503551136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13876.00341796875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13875.26278409091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9175000190734863</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13590.81103515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13590.0439453125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13311.28076171875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13310.28409090909</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13036.35986328125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13035.81019176136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12767.15966796875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12766.6357421875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12503.33740234375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12502.61709872159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12244.318359375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.994772732257843</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12243.6689453125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11990.15673828125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11989.66974431818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11741.0869140625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9932954582301053</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11740.5576171875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11496.6337890625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11496.20294744318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11256.96630859375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11256.55104758523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11021.923828125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11021.50914417614</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10791.46826171875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10791.01598011364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10565.50927734375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10564.96493252841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10343.71435546875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10343.26313920455</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10126.27685546875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10125.84845525568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9913.08056640625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9912.644264914772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9704.087890625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9703.581764914772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9498.91357421875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9498.55379971591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9200000166893005</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9298.14794921875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9297.529119318182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9100.77294921875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9100.400834517046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8907.67529296875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8907.146928267046</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8718.01318359375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8717.615855823864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8532.13134765625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8531.81844815341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8349.9228515625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9988636374473572</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8349.62588778409</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3658536585365854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4634146341463415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.02010050251256281</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02010050251256281</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04020100502512563</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8048780487804879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.04020100502512563</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.926829268292683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1809045226130653</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.926829268292683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1809045226130653</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2613065326633166</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.2613065326633166</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9729746292437799</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8040201005025126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8190954773869347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8341708542713567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8844221105527639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8944723618090452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9597989949748744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9597989949748744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9798994974874372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9798994974874372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.5365853658536586</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5365853658536586</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.6585365853658537</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.956305919843118</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2605.818646599265</v>
       </c>
     </row>
   </sheetData>
